--- a/Mars Standard Tasks.xlsx
+++ b/Mars Standard Tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Allocation</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Skipped. Site can't be reached</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Skipped. Site returns the requested resource is no longer available.</t>
   </si>
 </sst>
 </file>
@@ -204,10 +210,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -217,6 +219,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,291 +509,312 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4"/>
-    <col min="6" max="6" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="4"/>
+    <col min="1" max="1" width="65.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
